--- a/Documentação/Backlog do projeto.xlsx
+++ b/Documentação/Backlog do projeto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Behavior\Desktop\Pantec\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CCB48-17A7-4638-991C-1D0E65065F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
+    <workbookView xWindow="5115" yWindow="210" windowWidth="15375" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,21 +66,12 @@
     <t xml:space="preserve">O sistema deve notificar resultado ao usuario por email </t>
   </si>
   <si>
-    <t>O sistema deve ter um dashboard para visualização</t>
-  </si>
-  <si>
     <t xml:space="preserve">O sistema deverá ter tela de login </t>
   </si>
   <si>
-    <t>O sistema devera ter uma tela para cadastro</t>
-  </si>
-  <si>
     <t>A aplicação possuira graficos para administração de recursos da maquina</t>
   </si>
   <si>
-    <t>A aplicação devera gerar aquivos em pdf para dowlods</t>
-  </si>
-  <si>
     <t>Classificação</t>
   </si>
   <si>
@@ -126,12 +118,21 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>A aplicação devera gerar aquivos em pdf para downloads</t>
+  </si>
+  <si>
+    <t>O site deve ter um dashboard para visualização</t>
+  </si>
+  <si>
+    <t>O site devera ter uma tela para cadastro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,11 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,18 +518,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -539,7 +540,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -550,7 +551,7 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -561,7 +562,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -572,7 +573,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -583,7 +584,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -594,7 +595,7 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -605,10 +606,10 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -616,7 +617,7 @@
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -627,10 +628,10 @@
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
@@ -638,7 +639,7 @@
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -649,10 +650,10 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -660,10 +661,10 @@
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -671,10 +672,10 @@
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>

--- a/Documentação/Backlog do projeto.xlsx
+++ b/Documentação/Backlog do projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Behavior\Desktop\Pantec\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1CCB48-17A7-4638-991C-1D0E65065F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33C905-2C00-4281-89A3-0EBA2810FD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="210" windowWidth="15375" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="780" windowWidth="15375" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">O sistema deverá ter tela de login </t>
   </si>
   <si>
-    <t>A aplicação possuira graficos para administração de recursos da maquina</t>
-  </si>
-  <si>
     <t>Classificação</t>
   </si>
   <si>
@@ -127,13 +124,58 @@
   </si>
   <si>
     <t>O site devera ter uma tela para cadastro</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um helpdesk</t>
+  </si>
+  <si>
+    <t>O sistema deverá utilizar a API OSHI p/ capitar os dados</t>
+  </si>
+  <si>
+    <t>A aplicação possuirá graficos para administração de recursos da maquina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +194,12 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -503,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,18 +566,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -540,7 +588,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -551,7 +599,7 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -562,7 +610,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -573,7 +621,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -584,7 +632,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -595,7 +643,7 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -606,18 +654,18 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -628,7 +676,7 @@
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -639,7 +687,7 @@
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -650,10 +698,10 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -661,10 +709,10 @@
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -672,16 +720,109 @@
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Documentação/Backlog do projeto.xlsx
+++ b/Documentação/Backlog do projeto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Behavior\Desktop\Pantec\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Pantec\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33C905-2C00-4281-89A3-0EBA2810FD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="780" windowWidth="15375" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="780" windowWidth="15375" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -36,9 +35,6 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>O site deve ser responsivo</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -135,33 +131,6 @@
     <t>R17</t>
   </si>
   <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
     <t>O sistema deve ter um helpdesk</t>
   </si>
   <si>
@@ -169,12 +138,18 @@
   </si>
   <si>
     <t>A aplicação possuirá graficos para administração de recursos da maquina</t>
+  </si>
+  <si>
+    <t>O sistema deverá capturar a temperatura da placa de vídeo</t>
+  </si>
+  <si>
+    <t>O sistema devra ter um site para divulgação responsivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -240,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +245,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,21 +554,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -588,10 +576,10 @@
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -599,21 +587,21 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -621,10 +609,10 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
@@ -632,10 +620,10 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -643,21 +631,21 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
@@ -665,10 +653,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1</v>
@@ -676,10 +664,10 @@
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
@@ -687,10 +675,10 @@
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -698,21 +686,21 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -720,10 +708,10 @@
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
@@ -731,10 +719,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
@@ -742,84 +730,25 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documentação/Backlog do projeto.xlsx
+++ b/Documentação/Backlog do projeto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Pantec\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Music\Pantec\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="780" windowWidth="15375" windowHeight="10140"/>
+    <workbookView xWindow="5115" yWindow="210" windowWidth="15375" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -59,10 +59,7 @@
     <t>O sistema deve monitorar CPU, RAM, placa de vídeo e disco.</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deve notificar resultado ao usuario por email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá ter tela de login </t>
+    <t>A aplicação possuira graficos para administração de recursos da maquina</t>
   </si>
   <si>
     <t>Classificação</t>
@@ -113,44 +110,29 @@
     <t>ID</t>
   </si>
   <si>
-    <t>A aplicação devera gerar aquivos em pdf para downloads</t>
-  </si>
-  <si>
     <t>O site deve ter um dashboard para visualização</t>
   </si>
   <si>
     <t>O site devera ter uma tela para cadastro</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>O sistema deve ter um helpdesk</t>
-  </si>
-  <si>
-    <t>O sistema deverá utilizar a API OSHI p/ capitar os dados</t>
-  </si>
-  <si>
-    <t>A aplicação possuirá graficos para administração de recursos da maquina</t>
-  </si>
-  <si>
-    <t>O sistema deverá capturar a temperatura da placa de vídeo</t>
-  </si>
-  <si>
-    <t>O sistema devra ter um site para divulgação responsivo</t>
+    <t>O sistema deve notificar resultado ao usuario por whatsapp</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter tela de login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema devera possuir um suporte </t>
+  </si>
+  <si>
+    <t>O sistema de ter um site para divulgação  responsivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,12 +151,6 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -204,7 +180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,16 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,19 +528,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -576,10 +551,10 @@
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -587,10 +562,10 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -598,7 +573,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -609,7 +584,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -620,7 +595,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -631,7 +606,7 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -642,18 +617,18 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -664,10 +639,10 @@
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
@@ -675,7 +650,7 @@
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -686,72 +661,38 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
